--- a/IRAI.xlsx
+++ b/IRAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{068CB72B-31B4-412E-B710-745A9FD34C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66ECE573-3A06-4083-9716-512303B0852E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1071,7 +1058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1131,36 +1118,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,14 +1162,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{7BBB004F-E76A-41EA-BD2C-ADEDC1DC6F29}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{44ED6350-950C-4509-A8EF-703D7D50C3E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCE4C4E-DD9E-4991-B63F-2B2C7CDD03F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF80B19-7CD0-44FA-948E-A5628151260E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A980AC-C2C0-43FA-891C-F7DBB33046EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037C6E14-03DF-48B5-BA9D-E42C39D3BED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66668AE1-5377-4094-9BFA-06959717A6B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A1DF1D-6678-41F2-B8D8-979C28FFFDD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F65D2BB-D727-BDD0-6805-21811FDD637D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E0F647-D6C2-4F08-1AA8-B89650CC03F9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1454,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD33C8A2-8434-FF1F-E598-391173EECD19}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAF71F6-87CD-15FD-5A97-4AC541D5B31C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1473,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7344B8-5868-A44C-083A-071FE4DA148E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DAB8F8-730B-4D41-ADD9-F0693833D97F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1504,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F2F101-BD8F-048A-F5C2-C49B3DE2287C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BB014F-220B-E82D-29E6-50FFA7FE026B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1535,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBBB1FF-A7E2-BCC0-A6CC-9DF97B6B09D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D398EE-73E4-5D2B-4EC2-D7FC0C47EF4C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1578,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E395877C-B934-4804-B4A1-B924D25FC76C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC27B22-B63B-42D5-91E0-36FCFC54DFD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA6C5EE-10A9-4D72-B3AD-1D1A22E1F1CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E227FA9-A596-4265-B47F-807B5DC0C73A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2678E38-291F-4CD5-8B46-982FDA9C79F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0C0840-1FE8-46A2-9595-45A85B1E1173}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB49C81-C4A5-4875-A1FC-E65BC5B75968}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C87BCC-894A-4483-A635-5C1911991A1F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1984,98 +1942,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5341,19 +5299,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5376,46 +5334,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5440,54 +5398,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5498,41 +5457,41 @@
       <c r="B2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45717</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>2268</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>418</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>296</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="27" t="s">
         <v>298</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5563,25 +5522,24 @@
       <c r="B1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="32">
         <v>4</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="35">
-        <v>4</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>2.6451527575717501E-4</v>
       </c>
     </row>

--- a/IRAI.xlsx
+++ b/IRAI.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66ECE573-3A06-4083-9716-512303B0852E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F0BD46-D4A3-4ABA-9E0E-B6B439999E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="308">
   <si>
     <t>COMARCA</t>
   </si>
@@ -932,6 +933,24 @@
   </si>
   <si>
     <t>IRAÍ</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-Limpeza</t>
+  </si>
+  <si>
+    <t>Dificuldade em responder o Teams</t>
+  </si>
+  <si>
+    <t>MOT-VIG</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
   </si>
 </sst>
 </file>
@@ -941,7 +960,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,6 +1013,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1008,7 +1040,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1049,6 +1081,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
         <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1121,9 +1159,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,12 +1243,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{44ED6350-950C-4509-A8EF-703D7D50C3E0}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{0C55266F-3668-4C62-96B7-D71FA0392CFA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1282,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF80B19-7CD0-44FA-948E-A5628151260E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CB83F9-02A5-4A5F-9EFD-B8163067CC01}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1323,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037C6E14-03DF-48B5-BA9D-E42C39D3BED3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645FC32B-698B-441F-A598-9AFBC494DEAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1386,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A1DF1D-6678-41F2-B8D8-979C28FFFDD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AAA7C6-EB7C-485B-A723-7800F68F66B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1405,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E0F647-D6C2-4F08-1AA8-B89650CC03F9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80339714-E213-82F8-510A-15FB8714FEB8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1454,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAF71F6-87CD-15FD-5A97-4AC541D5B31C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F3D275-6DD0-3CCE-B8C1-674B7C913809}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1473,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DAB8F8-730B-4D41-ADD9-F0693833D97F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95780B57-25F2-0C6E-674B-F5232EE55057}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1504,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BB014F-220B-E82D-29E6-50FFA7FE026B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A81D84-0859-3C6C-AF9C-BA5B1C66E77A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1535,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D398EE-73E4-5D2B-4EC2-D7FC0C47EF4C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425ECE5E-6052-9517-958E-3FEA3866AEB7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1578,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC27B22-B63B-42D5-91E0-36FCFC54DFD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF7B2EB-374A-4D37-92AA-3765705C7787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1616,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E227FA9-A596-4265-B47F-807B5DC0C73A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2306A85F-BFF1-434B-9727-BECE6897D2C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1659,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0C0840-1FE8-46A2-9595-45A85B1E1173}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F002830-02D9-4014-8794-F36E43434A96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C87BCC-894A-4483-A635-5C1911991A1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A776EE-9BEA-4807-91D5-8532FD802AD8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1942,98 +1984,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="36"/>
+    <col min="6" max="6" width="2" style="36" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5546,4 +5588,55 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/IRAI.xlsx
+++ b/IRAI.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F0BD46-D4A3-4ABA-9E0E-B6B439999E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B08D22-7722-442F-88F9-0C3E3680F2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
-    <sheet name="DGC" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="305">
   <si>
     <t>COMARCA</t>
   </si>
@@ -924,15 +923,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>IRAÍ</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1161,7 +1151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1228,21 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,7 +1227,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{0C55266F-3668-4C62-96B7-D71FA0392CFA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{5CE9D6B6-3FAA-42B6-848E-0916E237C722}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,10 +1257,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CB83F9-02A5-4A5F-9EFD-B8163067CC01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611069B6-25F9-44CC-90C6-DD6442606935}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1298,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645FC32B-698B-441F-A598-9AFBC494DEAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02C7199-0704-4089-96D1-F961CDF0011A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1361,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AAA7C6-EB7C-485B-A723-7800F68F66B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16FA8AB-B564-4184-B15D-DCC7FE0F2406}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1380,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80339714-E213-82F8-510A-15FB8714FEB8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02336746-0144-CAC8-70F8-5F27B79958BB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1454,7 +1429,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F3D275-6DD0-3CCE-B8C1-674B7C913809}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77D5418-6502-11F3-51B2-8BCBCF7F93FD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1473,7 +1448,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95780B57-25F2-0C6E-674B-F5232EE55057}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66ADA4FA-534B-9183-CFA4-C536F08D9A3B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1504,7 +1479,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A81D84-0859-3C6C-AF9C-BA5B1C66E77A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D390946-D113-8F70-37A8-BCD26BDD6521}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1535,7 +1510,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425ECE5E-6052-9517-958E-3FEA3866AEB7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A4B288-DD58-02DC-4384-F2AD3D541699}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1578,7 +1553,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF7B2EB-374A-4D37-92AA-3765705C7787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C45F86B8-C9C1-4E04-9775-406A43DD9BB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1591,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2306A85F-BFF1-434B-9727-BECE6897D2C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926B5EDA-517D-4078-A1E8-ADC73E17DE53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1634,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F002830-02D9-4014-8794-F36E43434A96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDE3F88-4274-4FB7-AACB-05C1E6038FE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A776EE-9BEA-4807-91D5-8532FD802AD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7172F0C-8467-4695-8A68-9B411368DB0B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1984,98 +1959,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="31"/>
+    <col min="6" max="6" width="2" style="31" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5544,54 +5519,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="32">
-        <v>4</v>
-      </c>
-      <c r="C2" s="30">
-        <v>2.6451527575717501E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5604,36 +5531,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="33" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/IRAI.xlsx
+++ b/IRAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B08D22-7722-442F-88F9-0C3E3680F2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F01F713-889C-40C7-A579-DCB0717D6FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1227,7 +1227,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{5CE9D6B6-3FAA-42B6-848E-0916E237C722}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{65ACB7C2-17A4-4743-B3EF-2840B3A81ECA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1257,10 +1257,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611069B6-25F9-44CC-90C6-DD6442606935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D041DA87-A35C-47D5-85D1-2D197B448716}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1298,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02C7199-0704-4089-96D1-F961CDF0011A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B08352-46EC-4D2E-B4F2-AC56C4BC559D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1361,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16FA8AB-B564-4184-B15D-DCC7FE0F2406}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F314F1-F11B-4B78-BF12-AFC7C30BDBC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1380,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02336746-0144-CAC8-70F8-5F27B79958BB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B58187A-FC4A-B390-2B07-22A1153046C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1429,7 +1429,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77D5418-6502-11F3-51B2-8BCBCF7F93FD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37573FB6-1AC6-D7C0-5A75-5A13E2152EB1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1448,7 +1448,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66ADA4FA-534B-9183-CFA4-C536F08D9A3B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A19B04-0A6D-E2F1-2DB4-86B00C8BD9B2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1479,7 +1479,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D390946-D113-8F70-37A8-BCD26BDD6521}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8997C7-E8F1-0060-D586-AB1FBD57F380}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1510,7 +1510,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A4B288-DD58-02DC-4384-F2AD3D541699}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{371FBCEC-634F-BB40-5AD0-5C5737AF0B99}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1553,7 +1553,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C45F86B8-C9C1-4E04-9775-406A43DD9BB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D847E5D-6E05-4734-845B-16F2AC9E49A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1591,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926B5EDA-517D-4078-A1E8-ADC73E17DE53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47603EB-90DA-4C68-9CE8-29AC9FF0C764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,50 +1616,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDE3F88-4274-4FB7-AACB-05C1E6038FE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1947,7 +1903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7172F0C-8467-4695-8A68-9B411368DB0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97191E1F-AD55-4977-BAF2-A79A30708B70}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
